--- a/support/specifications/ccda/CCDA to FHIR Conversion Spec - Medent.xlsx
+++ b/support/specifications/ccda/CCDA to FHIR Conversion Spec - Medent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="709"/>
+    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="709" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Medent" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="442">
   <si>
     <t>Medent CCDA</t>
   </si>
@@ -1684,7 +1684,121 @@
     <t>"http://shinny.org/us/ny/hrsn/Patient/&lt;patientResourceId&gt;"</t>
   </si>
   <si>
-    <t>For Medent CCDS, if there is an entry in the Procedures section with a consent question (`entry.observation.entryRelationship.observation with code = "105511-0"`) and answer (`entry.observation.entryRelationship.observation.value`), then if the `entry.observation.entryRelationship.observation.value.displayName = "Yes"` then, a consent resource with provision.type = "permit" will be generated. Otherwise, a consent resource with provision.type = "deny" will be generated.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">For </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Medent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCDS, if there is an entry in the Procedures section with a consent question (`entry.observation.entryRelationship.observation with code = "105511-0"`) and answer (`entry.observation.entryRelationship.observation.value`), then if the `entry.observation.entryRelationship.observation.value.displayName = "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" or  `entry.observation.entryRelationship.observation.value.code = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA33-6'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ` then, a consent resource with provision.type = "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" will be generated. Otherwise, a consent resource with provision.type = "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" will be generated.</t>
+    </r>
   </si>
   <si>
     <t>"Consent"</t>
@@ -1710,7 +1824,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Document.authorization.consent.statusCode.code
+      <t xml:space="preserve">Document.component.structuredBody.component.section[code.code='47519-4'].entry.observation.entryRelationship.observation[code.code = '105511-0'].statusCode.code
 </t>
     </r>
     <r>
@@ -1940,7 +2054,7 @@
     <t>provision -&gt; type</t>
   </si>
   <si>
-    <t>Document.authorization.consent.code.displayName</t>
+    <t>Document.component.structuredBody.component.section[code.code='47519-4'].entry.observation.entryRelationship.observation[code.code = '105511-0'].value.code</t>
   </si>
   <si>
     <r>
@@ -1978,7 +2092,72 @@
     </r>
   </si>
   <si>
-    <t>consent -&gt; code -&gt; displayName will be 'deny' or 'permit'.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If there is an entry in the Procedures section with a consent question (`entry.observation.entryRelationship.observation with code = "105511-0"`) and answer (`entry.observation.entryRelationship.observation.value.code`), then if the `entry.observation.entryRelationship.observation.value.code = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA33-6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' then, "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" else "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
   </si>
   <si>
     <t>patient -&gt; reference</t>
@@ -3804,7 +3983,50 @@
     </r>
   </si>
   <si>
-    <t>"id" : "N6645918CUMC20250121T1024400530",</t>
+    <r>
+      <t>Combine the Facility ID obtained from the header variable '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X-TechBD-Facility-ID'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t> with the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> id.extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> value from the Observation element.</t>
+    </r>
+  </si>
+  <si>
+    <t>"id": "ACPNY-c6a74afc-5782-47e0-84b8-08e143d27c91"</t>
   </si>
   <si>
     <t>"http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-observation-screening-response"</t>
@@ -4374,6 +4596,9 @@
       </rPr>
       <t xml:space="preserve"> CCDA files, the Observations are taken from Document.component.structuredBody.component.section[code[@code = '47519-4']].entry.observation[code[@code != '76690-7']].entryRelationship.observation</t>
     </r>
+  </si>
+  <si>
+    <t>"id" : "N6645918CUMC20250121T1024400530",</t>
   </si>
   <si>
     <t>Provided the fixed value, "en"</t>
@@ -4770,6 +4995,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">For </t>
     </r>
     <r>
@@ -4896,7 +5128,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5147,6 +5379,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
@@ -5156,11 +5396,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -5625,7 +5877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5651,9 +5903,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6251,24 +6500,24 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88571428571429" style="26"/>
+    <col min="1" max="1" width="8.88571428571429" style="25"/>
     <col min="2" max="2" width="35.2190476190476" customWidth="1"/>
     <col min="3" max="3" width="92.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -6279,10 +6528,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -6290,10 +6539,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -6301,10 +6550,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -6312,10 +6561,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -6369,10 +6618,10 @@
     </row>
     <row r="2" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6383,7 +6632,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="60" spans="2:7">
@@ -6395,7 +6644,7 @@
       </c>
       <c r="D4"/>
       <c r="E4" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6414,28 +6663,28 @@
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>423</v>
+      <c r="C6" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:6">
       <c r="B7" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>426</v>
+      <c r="C7" s="10" t="s">
+        <v>428</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="12"/>
+        <v>429</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="1" ht="120" spans="2:5">
@@ -6443,13 +6692,13 @@
         <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D8" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>429</v>
+      <c r="E8" s="13" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="60" spans="2:5">
@@ -6457,9 +6706,9 @@
         <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>432</v>
+      </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
@@ -6467,9 +6716,9 @@
         <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>433</v>
+      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -6477,9 +6726,9 @@
         <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>434</v>
+      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="1" spans="2:5">
@@ -6487,9 +6736,9 @@
         <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>435</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="1" spans="2:5">
@@ -6497,9 +6746,9 @@
         <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>436</v>
+      </c>
+      <c r="D13" s="12"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="1" spans="2:5">
@@ -6507,19 +6756,19 @@
         <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>437</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="1" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>439</v>
+      </c>
+      <c r="D15" s="12"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="1" spans="2:6">
@@ -6529,8 +6778,8 @@
       <c r="C16" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>438</v>
+      <c r="D16" s="14" t="s">
+        <v>440</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="4"/>
@@ -6540,9 +6789,9 @@
         <v>191</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>441</v>
+      </c>
+      <c r="D17" s="14"/>
       <c r="E17" s="8"/>
       <c r="F17" s="4"/>
     </row>
@@ -6684,7 +6933,7 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6703,7 +6952,7 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6711,19 +6960,19 @@
       <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" ht="45" spans="2:5">
       <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" ht="30" spans="2:5">
       <c r="B21" s="4" t="s">
@@ -6763,19 +7012,19 @@
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6794,7 +7043,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -6806,7 +7055,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -6814,7 +7063,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -6839,7 +7088,7 @@
       <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6847,13 +7096,13 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="4" t="s">
@@ -6862,29 +7111,29 @@
       <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6895,7 +7144,7 @@
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6917,18 +7166,18 @@
       <c r="C15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6939,10 +7188,10 @@
       <c r="C17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6953,7 +7202,7 @@
       <c r="C18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="4" t="s">
@@ -6962,7 +7211,7 @@
       <c r="C19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="4" t="s">
@@ -6971,7 +7220,7 @@
       <c r="C20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="4" t="s">
@@ -6980,7 +7229,7 @@
       <c r="C21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
@@ -6989,7 +7238,7 @@
       <c r="C22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
@@ -6998,7 +7247,7 @@
       <c r="C23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" ht="48" customHeight="1" spans="2:5">
       <c r="B24" s="4" t="s">
@@ -7026,7 +7275,7 @@
       <c r="C26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7037,7 +7286,7 @@
       <c r="C27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>106</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -7051,7 +7300,7 @@
       <c r="C28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5">
@@ -7061,7 +7310,7 @@
       <c r="C29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" ht="30" spans="2:5">
@@ -7071,7 +7320,7 @@
       <c r="C30" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5">
@@ -7081,7 +7330,7 @@
       <c r="C31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" ht="45" spans="2:5">
@@ -7091,7 +7340,7 @@
       <c r="C32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -7105,7 +7354,7 @@
       <c r="C33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="4" t="s">
@@ -7114,7 +7363,7 @@
       <c r="C34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" ht="30" spans="2:4">
       <c r="B35" s="4" t="s">
@@ -7123,7 +7372,7 @@
       <c r="C35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
@@ -7132,7 +7381,7 @@
       <c r="C36" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="4" t="s">
@@ -7141,7 +7390,7 @@
       <c r="C37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7152,8 +7401,8 @@
       <c r="C38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="29" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="28" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7161,7 +7410,7 @@
       <c r="B39" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -7172,7 +7421,7 @@
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>130</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -7180,31 +7429,31 @@
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="11"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>136</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="11"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="4" t="s">
@@ -7213,30 +7462,30 @@
       <c r="C44" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="11"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" ht="195" spans="2:5">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="46" ht="195" spans="2:5">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>145</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -7244,16 +7493,16 @@
       </c>
     </row>
     <row r="47" ht="195" spans="2:5">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>147</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" customFormat="1" spans="2:5">
       <c r="B48" s="4" t="s">
@@ -7262,7 +7511,7 @@
       <c r="C48" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="11"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" customFormat="1" spans="2:5">
@@ -7272,7 +7521,7 @@
       <c r="C49" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="11"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" customFormat="1" spans="2:5">
@@ -7282,7 +7531,7 @@
       <c r="C50" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="11"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" customFormat="1" spans="2:5">
@@ -7292,17 +7541,17 @@
       <c r="C51" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="11"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" ht="150" spans="2:5">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>158</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -7313,10 +7562,10 @@
       <c r="B53" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="11"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" customFormat="1" spans="2:5">
@@ -7326,7 +7575,7 @@
       <c r="C54" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="11"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" customFormat="1" spans="2:5">
@@ -7336,7 +7585,7 @@
       <c r="C55" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="11"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" customFormat="1" spans="2:5">
@@ -7346,7 +7595,7 @@
       <c r="C56" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="11"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" customFormat="1" spans="2:5">
@@ -7356,30 +7605,30 @@
       <c r="C57" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="11"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="11"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" ht="180" spans="2:5">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7387,7 +7636,7 @@
       <c r="B60" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>174</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -7401,7 +7650,7 @@
       <c r="C61" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="11"/>
+      <c r="D61" s="10"/>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="2:6">
@@ -7411,15 +7660,15 @@
       <c r="C62" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D62" s="11"/>
+      <c r="D62" s="10"/>
       <c r="F62" s="4"/>
     </row>
     <row r="63" ht="210" spans="2:6">
       <c r="B63" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="14" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="13" t="s">
         <v>181</v>
       </c>
       <c r="F63" s="4"/>
@@ -7428,7 +7677,7 @@
       <c r="B64" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>183</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -7442,7 +7691,7 @@
       <c r="C65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="13"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" ht="40" customHeight="1" spans="2:4">
       <c r="B66" s="4" t="s">
@@ -7451,7 +7700,7 @@
       <c r="C66" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="13"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="4" t="s">
@@ -7460,7 +7709,7 @@
       <c r="C67" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="14" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7471,7 +7720,7 @@
       <c r="C68" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D68" s="15"/>
+      <c r="D68" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7494,7 +7743,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -7575,19 +7824,19 @@
       <c r="C6" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" ht="120" spans="2:6">
       <c r="B7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>199</v>
       </c>
       <c r="D7" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F7" s="4"/>
@@ -7599,7 +7848,7 @@
       <c r="C8" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -7613,7 +7862,7 @@
       <c r="C9" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
         <v>205</v>
       </c>
@@ -7625,7 +7874,7 @@
       <c r="C10" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="8" t="s">
         <v>205</v>
       </c>
@@ -7637,7 +7886,7 @@
       <c r="C11" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -7680,14 +7929,14 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" ht="45" spans="2:5">
+    <row r="15" ht="120" spans="2:5">
       <c r="B15" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>223</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -7725,7 +7974,7 @@
       <c r="C18" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>233</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -7765,7 +8014,7 @@
       <c r="C21" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>239</v>
       </c>
       <c r="E21" s="8"/>
@@ -7778,7 +8027,7 @@
       <c r="C22" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="8"/>
       <c r="F22" s="4"/>
     </row>
@@ -7819,7 +8068,7 @@
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -7868,7 +8117,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -7879,7 +8128,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="1" ht="30" spans="2:6">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -7893,13 +8142,13 @@
       <c r="B7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>246</v>
       </c>
       <c r="D7" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7910,10 +8159,10 @@
       <c r="C8" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="30" spans="2:5">
       <c r="B9" s="5" t="s">
@@ -7922,8 +8171,8 @@
       <c r="C9" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="5" t="s">
@@ -7932,17 +8181,17 @@
       <c r="C10" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="30" spans="2:4">
       <c r="B11" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7950,8 +8199,8 @@
       <c r="B12" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7962,7 +8211,7 @@
       <c r="C13" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="1" spans="2:3">
       <c r="B14" t="s">
@@ -7979,7 +8228,7 @@
       <c r="C15" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7998,7 +8247,7 @@
       <c r="C17" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8017,7 +8266,7 @@
       <c r="C19" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>276</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -8031,7 +8280,7 @@
       <c r="C20" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" ht="409.5" spans="2:5">
       <c r="B21" t="s">
@@ -8040,7 +8289,7 @@
       <c r="C21" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>282</v>
       </c>
     </row>
@@ -8051,7 +8300,7 @@
       <c r="C22" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" ht="66" customHeight="1" spans="2:5">
       <c r="B23" t="s">
@@ -8060,7 +8309,7 @@
       <c r="C23" t="s">
         <v>286</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>287</v>
       </c>
       <c r="E23" s="4"/>
@@ -8072,7 +8321,7 @@
       <c r="C24" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="1" spans="2:4">
@@ -8082,7 +8331,7 @@
       <c r="C25" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8093,7 +8342,7 @@
       <c r="C26" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8204,7 +8453,7 @@
       <c r="E7" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8212,10 +8461,10 @@
       <c r="B8" t="s">
         <v>299</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8226,7 +8475,7 @@
       <c r="C9" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" ht="30" spans="2:5">
@@ -8236,7 +8485,7 @@
       <c r="C10" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" ht="30" spans="2:5">
@@ -8246,7 +8495,7 @@
       <c r="C11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" ht="30" spans="2:5">
@@ -8256,17 +8505,17 @@
       <c r="C12" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" customFormat="1" ht="66" customHeight="1" spans="2:4">
       <c r="B13" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8277,8 +8526,8 @@
       <c r="C14" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" customFormat="1" ht="30" spans="2:5">
       <c r="B15" s="4" t="s">
@@ -8287,8 +8536,8 @@
       <c r="C15" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" customFormat="1" ht="30" spans="2:5">
       <c r="B16" s="4" t="s">
@@ -8297,7 +8546,7 @@
       <c r="C16" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="1" ht="30" spans="2:4">
@@ -8307,16 +8556,16 @@
       <c r="C17" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" ht="60" spans="2:5">
       <c r="B18" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>321</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -8327,7 +8576,7 @@
       <c r="B19" t="s">
         <v>323</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>324</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -8339,7 +8588,7 @@
         <v>326</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="10"/>
       <c r="F20" s="8" t="s">
         <v>327</v>
       </c>
@@ -8349,7 +8598,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>328</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -8364,7 +8613,7 @@
       <c r="C22" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="10"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="1" ht="195" spans="2:6">
@@ -8374,8 +8623,8 @@
       <c r="C23" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F23" s="4"/>
@@ -8387,7 +8636,7 @@
       <c r="C24" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>332</v>
       </c>
       <c r="E24" s="4"/>
@@ -8400,7 +8649,7 @@
       <c r="C25" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
@@ -8411,7 +8660,7 @@
       <c r="C26" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
@@ -8422,7 +8671,7 @@
       <c r="C27" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
@@ -8433,7 +8682,7 @@
       <c r="C28" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
@@ -8444,7 +8693,7 @@
       <c r="C29" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
@@ -8455,7 +8704,7 @@
       <c r="C30" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
@@ -8466,7 +8715,7 @@
       <c r="C31" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8477,7 +8726,7 @@
       <c r="C32" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8533,7 +8782,7 @@
       </c>
     </row>
     <row r="2" ht="45" spans="1:1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8560,7 +8809,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -8571,7 +8820,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" ht="30" spans="2:6">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -8602,7 +8851,7 @@
       <c r="D8" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8613,7 +8862,7 @@
       <c r="C9" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8624,7 +8873,7 @@
       <c r="C10" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
@@ -8633,7 +8882,7 @@
       <c r="C11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" ht="30" spans="2:4">
@@ -8643,7 +8892,7 @@
       <c r="C12" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" ht="38" customHeight="1" spans="2:4">
       <c r="B13" s="4" t="s">
@@ -8652,7 +8901,7 @@
       <c r="C13" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8663,7 +8912,7 @@
       <c r="C14" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" ht="153" customHeight="1" spans="2:5">
       <c r="B15" s="4" t="s">
@@ -8672,7 +8921,7 @@
       <c r="C15" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
         <v>363</v>
       </c>
@@ -8684,7 +8933,7 @@
       <c r="C16" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8717,7 +8966,7 @@
       <c r="D19" t="s">
         <v>369</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8728,7 +8977,7 @@
       <c r="C20" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8739,7 +8988,7 @@
       <c r="C21" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8757,8 +9006,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -8801,7 +9050,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="19"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
@@ -8812,21 +9061,21 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="46.5" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="C4" s="16" t="s">
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -8837,11 +9086,11 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="1" ht="30" spans="2:6">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -8863,24 +9112,24 @@
         <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D8" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="9" ht="139" customHeight="1" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E9" s="17" t="s">
         <v>379</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="10" ht="45" spans="2:5">
@@ -8888,11 +9137,11 @@
         <v>215</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" ht="210" spans="2:5">
@@ -8900,8 +9149,8 @@
         <v>210</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="12" t="s">
-        <v>382</v>
+      <c r="E11" s="11" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="12" ht="210" spans="2:5">
@@ -8909,17 +9158,17 @@
         <v>213</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="12" t="s">
-        <v>383</v>
+      <c r="E12" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" ht="84" customHeight="1" spans="2:5">
@@ -8929,10 +9178,10 @@
       <c r="C14" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
@@ -8941,8 +9190,8 @@
       <c r="C15" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
@@ -8951,19 +9200,19 @@
       <c r="C16" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" ht="30" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>355</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>387</v>
+      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" ht="105" spans="2:5">
@@ -8971,13 +9220,13 @@
         <v>356</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D18" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="10" t="s">
         <v>390</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="19" ht="30" spans="2:3">
@@ -8985,7 +9234,7 @@
         <v>359</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" ht="30" spans="2:3">
@@ -8998,35 +9247,35 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:5">
       <c r="B21" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D21" s="13" t="s">
         <v>394</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" ht="75" spans="2:5">
       <c r="B22" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="20" t="s">
         <v>397</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="19" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="23" ht="45" spans="2:5">
       <c r="B23" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12" t="s">
         <v>399</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="24" ht="75" spans="2:4">
@@ -9036,7 +9285,7 @@
       <c r="C24" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9050,13 +9299,13 @@
     </row>
     <row r="26" ht="45" spans="2:4">
       <c r="B26" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" ht="210" spans="2:5">
@@ -9067,19 +9316,19 @@
       <c r="D27" t="s">
         <v>366</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>403</v>
+      <c r="E27" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="28" ht="45" spans="2:4">
       <c r="B28" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -9101,8 +9350,8 @@
       <c r="C30" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>406</v>
+      <c r="D30" s="14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="31" ht="46" customHeight="1" spans="2:4">
@@ -9112,7 +9361,7 @@
       <c r="C31" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9171,7 +9420,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9196,12 +9445,12 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -9212,11 +9461,11 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="1" ht="30" spans="2:6">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9230,7 +9479,7 @@
         <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>345</v>
@@ -9241,24 +9490,24 @@
         <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D8" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>409</v>
+        <v>378</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" ht="150" spans="2:5">
@@ -9268,11 +9517,11 @@
       <c r="C10" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>412</v>
+      <c r="D10" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="11" ht="180" spans="2:5">
@@ -9280,8 +9529,8 @@
         <v>352</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="E11" s="12" t="s">
-        <v>413</v>
+      <c r="E11" s="11" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="12" ht="150" spans="2:5">
@@ -9289,8 +9538,8 @@
         <v>354</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="E12" s="12" t="s">
-        <v>414</v>
+      <c r="E12" s="11" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="13" ht="75" spans="2:4">
@@ -9300,7 +9549,7 @@
       <c r="C13" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9314,13 +9563,13 @@
     </row>
     <row r="15" ht="45" spans="2:4">
       <c r="B15" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" ht="210" spans="2:5">
@@ -9331,19 +9580,19 @@
       <c r="D16" t="s">
         <v>366</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>403</v>
+      <c r="E16" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="17" ht="45" spans="2:4">
       <c r="B17" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -9354,21 +9603,21 @@
         <v>369</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="F18" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="19" ht="165" spans="2:5">
       <c r="B19" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -9378,8 +9627,8 @@
       <c r="C20" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>406</v>
+      <c r="D20" s="14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="21" ht="46" customHeight="1" spans="2:4">
@@ -9389,7 +9638,7 @@
       <c r="C21" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/support/specifications/ccda/CCDA to FHIR Conversion Spec - Medent.xlsx
+++ b/support/specifications/ccda/CCDA to FHIR Conversion Spec - Medent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="709" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="709" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Medent" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="443">
   <si>
     <t>Medent CCDA</t>
   </si>
@@ -3269,6 +3269,9 @@
     </r>
   </si>
   <si>
+    <t>Both TAX and NPI numbers will be added to the Identifier if available.</t>
+  </si>
+  <si>
     <t>identifier (TAX) -&gt; system</t>
   </si>
   <si>
@@ -3994,39 +3997,119 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>X-TechBD-Facility-ID'</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">X-TechBD-Facility-ID' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10.5"/>
         <color rgb="FF00B050"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t> with the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>code.code</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10.5"/>
         <color rgb="FF00B050"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> id.extension</t>
-    </r>
-    <r>
-      <rPr>
+      <t>with the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10.5"/>
         <color rgb="FF00B050"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> value from the Observation element.</t>
-    </r>
-  </si>
-  <si>
-    <t>"id": "ACPNY-c6a74afc-5782-47e0-84b8-08e143d27c91"</t>
+      <t xml:space="preserve"> id.extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> value from the Observation element.
+If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id.extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is not available then add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>effectiveDateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> calculated.</t>
+    </r>
+  </si>
+  <si>
+    <t>"id": "ACPNY-96778-6-20260217000000"
+OR
+"id": "ACPNY-96778-6-flo1570000081-5810220439-97066-Z549669"</t>
   </si>
   <si>
     <t>"http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-observation-screening-response"</t>
@@ -5128,7 +5211,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5366,6 +5449,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5381,7 +5465,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5402,13 +5485,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF00B050"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10.5"/>
       <color rgb="FF00B050"/>
       <name val="Segoe UI"/>
@@ -5877,7 +5966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5934,6 +6023,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6506,18 +6598,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88571428571429" style="25"/>
+    <col min="1" max="1" width="8.88571428571429" style="26"/>
     <col min="2" max="2" width="35.2190476190476" customWidth="1"/>
     <col min="3" max="3" width="92.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -6528,7 +6620,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -6539,7 +6631,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -6550,10 +6642,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="25">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -6561,10 +6653,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="25">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -6618,10 +6710,10 @@
     </row>
     <row r="2" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6632,7 +6724,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="60" spans="2:7">
@@ -6644,7 +6736,7 @@
       </c>
       <c r="D4"/>
       <c r="E4" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6664,25 +6756,25 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:6">
       <c r="B7" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
@@ -6692,13 +6784,13 @@
         <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="60" spans="2:5">
@@ -6706,7 +6798,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="4"/>
@@ -6716,7 +6808,7 @@
         <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="4"/>
@@ -6726,7 +6818,7 @@
         <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="4"/>
@@ -6736,7 +6828,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="4"/>
@@ -6746,7 +6838,7 @@
         <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="4"/>
@@ -6756,17 +6848,17 @@
         <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="1" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="4"/>
@@ -6779,7 +6871,7 @@
         <v>189</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="4"/>
@@ -6789,7 +6881,7 @@
         <v>191</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="8"/>
@@ -7012,19 +7104,19 @@
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7402,7 +7494,7 @@
         <v>75</v>
       </c>
       <c r="D38" s="14"/>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="29" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7502,7 +7594,7 @@
       <c r="D47" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" customFormat="1" spans="2:5">
       <c r="B48" s="4" t="s">
@@ -7824,7 +7916,7 @@
       <c r="C6" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" ht="120" spans="2:6">
       <c r="B7" s="5" t="s">
@@ -8068,7 +8160,7 @@
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -8172,7 +8264,7 @@
         <v>253</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="23"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="5" t="s">
@@ -8300,7 +8392,7 @@
       <c r="C22" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="66" customHeight="1" spans="2:5">
       <c r="B23" t="s">
@@ -8363,8 +8455,8 @@
   <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -8457,7 +8549,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" ht="63" customHeight="1" spans="2:4">
+    <row r="8" ht="63" customHeight="1" spans="2:6">
       <c r="B8" t="s">
         <v>299</v>
       </c>
@@ -8467,30 +8559,33 @@
       <c r="D8" s="10" t="s">
         <v>301</v>
       </c>
+      <c r="F8" s="19" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" ht="30" spans="2:5">
       <c r="B10" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" ht="30" spans="2:5">
       <c r="B11" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>133</v>
@@ -8500,48 +8595,51 @@
     </row>
     <row r="12" ht="30" spans="2:5">
       <c r="B12" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" customFormat="1" ht="66" customHeight="1" spans="2:4">
+    <row r="13" customFormat="1" ht="66" customHeight="1" spans="2:6">
       <c r="B13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" customFormat="1" ht="30" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" customFormat="1" ht="30" spans="2:5">
       <c r="B16" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>133</v>
@@ -8551,46 +8649,46 @@
     </row>
     <row r="17" customFormat="1" ht="30" spans="2:4">
       <c r="B17" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18" ht="60" spans="2:5">
       <c r="B18" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" ht="93" customHeight="1" spans="2:6">
       <c r="B19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:6">
       <c r="B20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="10"/>
       <c r="F20" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="50" customHeight="1" spans="2:6">
@@ -8599,7 +8697,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>98</v>
@@ -8611,7 +8709,7 @@
         <v>99</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D22" s="10"/>
       <c r="F22" s="4"/>
@@ -8621,7 +8719,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
@@ -8634,10 +8732,10 @@
         <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -8647,7 +8745,7 @@
         <v>80</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="4"/>
@@ -8658,7 +8756,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="4"/>
@@ -8669,7 +8767,7 @@
         <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="4"/>
@@ -8680,7 +8778,7 @@
         <v>90</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="4"/>
@@ -8691,7 +8789,7 @@
         <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="4"/>
@@ -8702,7 +8800,7 @@
         <v>94</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="4"/>
@@ -8716,7 +8814,7 @@
         <v>189</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="46" customHeight="1" spans="2:4">
@@ -8724,7 +8822,7 @@
         <v>191</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D32" s="14"/>
     </row>
@@ -8782,8 +8880,8 @@
       </c>
     </row>
     <row r="2" ht="45" spans="1:1">
-      <c r="A2" s="20" t="s">
-        <v>341</v>
+      <c r="A2" s="21" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8792,7 +8890,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8804,7 +8902,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8824,7 +8922,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -8838,7 +8936,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" ht="150" spans="2:5">
@@ -8846,38 +8944,38 @@
         <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="2:4">
       <c r="B9" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" ht="30" spans="2:4">
       <c r="B10" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>216</v>
@@ -8887,43 +8985,43 @@
     </row>
     <row r="12" ht="30" spans="2:4">
       <c r="B12" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" ht="38" customHeight="1" spans="2:4">
       <c r="B13" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" ht="30" spans="2:4">
       <c r="B14" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" ht="153" customHeight="1" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" ht="75" spans="2:4">
@@ -8947,27 +9045,27 @@
     </row>
     <row r="18" ht="90" spans="2:5">
       <c r="B18" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -8978,7 +9076,7 @@
         <v>189</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" ht="45" customHeight="1" spans="2:4">
@@ -8986,7 +9084,7 @@
         <v>191</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D21" s="14"/>
     </row>
@@ -9006,8 +9104,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -9045,7 +9143,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9058,19 +9156,19 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" ht="46.5" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" ht="78" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" t="s">
         <v>375</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -9090,7 +9188,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9104,7 +9202,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" ht="150" spans="2:5">
@@ -9112,24 +9210,24 @@
         <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" ht="139" customHeight="1" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" ht="45" spans="2:5">
@@ -9137,11 +9235,11 @@
         <v>215</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" ht="210" spans="2:5">
@@ -9150,7 +9248,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" ht="210" spans="2:5">
@@ -9159,33 +9257,33 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" ht="84" customHeight="1" spans="2:5">
       <c r="B14" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>255</v>
@@ -9195,7 +9293,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>216</v>
@@ -9205,41 +9303,41 @@
     </row>
     <row r="17" ht="30" spans="2:5">
       <c r="B17" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" ht="105" spans="2:5">
       <c r="B18" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" ht="30" spans="2:3">
       <c r="B19" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" ht="30" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C20" t="s">
         <v>216</v>
@@ -9247,35 +9345,35 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:5">
       <c r="B21" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" ht="75" spans="2:5">
       <c r="B22" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="19" t="s">
-        <v>398</v>
+      <c r="E22" s="20" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="23" ht="45" spans="2:5">
       <c r="B23" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" ht="75" spans="2:4">
@@ -9299,48 +9397,48 @@
     </row>
     <row r="26" ht="45" spans="2:4">
       <c r="B26" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" ht="210" spans="2:5">
       <c r="B27" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" ht="45" spans="2:4">
       <c r="B28" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -9351,7 +9449,7 @@
         <v>189</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" ht="46" customHeight="1" spans="2:4">
@@ -9359,7 +9457,7 @@
         <v>191</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D31" s="14"/>
     </row>
@@ -9420,7 +9518,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9433,7 +9531,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9445,7 +9543,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -9465,7 +9563,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9479,10 +9577,10 @@
         <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" ht="150" spans="2:5">
@@ -9490,56 +9588,56 @@
         <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" ht="150" spans="2:5">
       <c r="B10" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" ht="180" spans="2:5">
       <c r="B11" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C11" s="4"/>
       <c r="E11" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" ht="150" spans="2:5">
       <c r="B12" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C12" s="4"/>
       <c r="E12" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" ht="75" spans="2:4">
@@ -9563,61 +9661,61 @@
     </row>
     <row r="15" ht="45" spans="2:4">
       <c r="B15" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" ht="210" spans="2:5">
       <c r="B16" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" ht="45" spans="2:4">
       <c r="B17" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" ht="165" spans="2:5">
       <c r="B19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -9628,7 +9726,7 @@
         <v>189</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" ht="46" customHeight="1" spans="2:4">
@@ -9636,7 +9734,7 @@
         <v>191</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D21" s="14"/>
     </row>
